--- a/artfynd/A 16014-2019.xlsx
+++ b/artfynd/A 16014-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>64491456</v>
+        <v>80163307</v>
       </c>
       <c r="B2" t="n">
-        <v>81972</v>
+        <v>90674</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,51 +692,44 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1445</v>
+        <v>5964</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Skogen vid Taljasjön Brogetorp, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>592414.3330418973</v>
+        <v>591682.7761678249</v>
       </c>
       <c r="R2" t="n">
-        <v>6548691.268650549</v>
+        <v>6548856.794839797</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -760,7 +753,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2017-03-19</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -770,17 +763,12 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2017-03-19</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Där stigarna delar på sig ovanför Nallestugan..</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -796,22 +784,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Ove Unander</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Ove Unander</t>
+          <t>Bo Törnquist, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67468361</v>
+        <v>64491456</v>
       </c>
       <c r="B3" t="n">
-        <v>86136</v>
+        <v>81972</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -820,30 +808,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4379</v>
+        <v>1445</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Toppvaxskivling</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hygrocybe conica</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schaeff.) P.Kumm.</t>
+          <t>(Schmidel:Fr.) Rehm</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -854,14 +842,14 @@
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Taljasjön Nallestugan 200 meter ovanför, Srm</t>
+          <t>Skogen vid Taljasjön Brogetorp, Srm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>592375.7148648208</v>
+        <v>592414.3330418973</v>
       </c>
       <c r="R3" t="n">
-        <v>6548711.426222452</v>
+        <v>6548691.268650549</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -888,7 +876,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2017-09-07</t>
+          <t>2017-03-19</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -898,12 +886,17 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2017-09-07</t>
+          <t>2017-03-19</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Där stigarna delar på sig ovanför Nallestugan..</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -931,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>70655188</v>
+        <v>67468361</v>
       </c>
       <c r="B4" t="n">
-        <v>81972</v>
+        <v>86136</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -943,30 +936,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1445</v>
+        <v>4379</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Toppvaxskivling</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Hygrocybe conica</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
+          <t>(Schaeff.) P.Kumm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -977,17 +970,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Taljaskogen, Srm</t>
+          <t>Taljasjön Nallestugan 200 meter ovanför, Srm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>592663.3053675652</v>
+        <v>592375.7148648208</v>
       </c>
       <c r="R4" t="n">
-        <v>6548389.674298235</v>
+        <v>6548711.426222452</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1006,12 +999,12 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2018-04-16</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1021,17 +1014,12 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2018-04-16</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Spridda i större område i hela sydsluttningen.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1563,7 +1551,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>79003637</v>
+        <v>79003804</v>
       </c>
       <c r="B9" t="n">
         <v>93235</v>
@@ -1598,7 +1586,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1611,14 +1599,14 @@
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>592546.037382876</v>
+        <v>592505.8540406533</v>
       </c>
       <c r="R9" t="n">
-        <v>6548422.847629313</v>
+        <v>6548656.957614895</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1640,7 +1628,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1665,7 +1653,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Vid basen av gammal rötskadad granlåga.Gammal grandominerad skog med delvis angrepp av 8-tandad barkborre.</t>
+          <t>På rotben av gammal rötskadad granlåga.Nordsluttning med gammal grandominerad skog med delvis inslag av tall och gammal asp. Död ved finns ojämnt spritt inom området. Delvis förekomst av mossbeklädda block.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1693,7 +1681,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>79003677</v>
+        <v>79003792</v>
       </c>
       <c r="B10" t="n">
         <v>89392</v>
@@ -1732,14 +1720,14 @@
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>592603.9751920738</v>
+        <v>592505.8540406533</v>
       </c>
       <c r="R10" t="n">
-        <v>6548285.867827895</v>
+        <v>6548656.957614895</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1761,7 +1749,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1786,7 +1774,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>På granlåga i anslutning till liten kulle. Gammal grandominerad skog med delvis angrepp av 8-tandad barkborre.</t>
+          <t>På gammal granlåga. Nordsluttning med gammal grandominerad skog med delvis inslag av tall och gammal asp. Död ved finns ojämnt spritt inom området. Delvis förekomst av mossbeklädda block.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1814,10 +1802,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>79003640</v>
+        <v>79009165</v>
       </c>
       <c r="B11" t="n">
-        <v>93235</v>
+        <v>56411</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1826,50 +1814,54 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>210</v>
+        <v>100049</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>kapslar</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>592652.0417776521</v>
+        <v>592134.0979763891</v>
       </c>
       <c r="R11" t="n">
-        <v>6548407.920876611</v>
+        <v>6548644.907675757</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1891,7 +1883,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1914,18 +1906,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>På gammal rötskadad granlåga. Gammal grandominerad skog med delvis angrepp av 8-tandad barkborre.</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1944,10 +1930,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>79003804</v>
+        <v>79391160</v>
       </c>
       <c r="B12" t="n">
-        <v>93235</v>
+        <v>89673</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1956,53 +1942,46 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>210</v>
+        <v>658</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>kapslar</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Taljaskogen, Srm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>592505.8540406533</v>
+        <v>592087.9989139064</v>
       </c>
       <c r="R12" t="n">
-        <v>6548656.957614895</v>
+        <v>6548676.204676082</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2026,27 +2005,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2019-07-16</t>
+          <t>2019-08-13</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2019-07-16</t>
+          <t>2019-08-13</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>På rotben av gammal rötskadad granlåga.Nordsluttning med gammal grandominerad skog med delvis inslag av tall och gammal asp. Död ved finns ojämnt spritt inom området. Delvis förekomst av mossbeklädda block.</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2055,29 +2029,28 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Fredrik Enoksson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Bo Karlsson</t>
+          <t>Fredrik Enoksson, Peter Lantz</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>79003792</v>
+        <v>80162774</v>
       </c>
       <c r="B13" t="n">
-        <v>89392</v>
+        <v>90642</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2086,29 +2059,37 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>150</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>(Pers.) Fayod</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
@@ -2117,10 +2098,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>592505.8540406533</v>
+        <v>592413.1728286413</v>
       </c>
       <c r="R13" t="n">
-        <v>6548656.957614895</v>
+        <v>6548717.988279536</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2147,7 +2128,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2019-07-16</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2157,17 +2138,12 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2019-07-16</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>På gammal granlåga. Nordsluttning med gammal grandominerad skog med delvis inslag av tall och gammal asp. Död ved finns ojämnt spritt inom området. Delvis förekomst av mossbeklädda block.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2188,17 +2164,17 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Bo Karlsson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>79009165</v>
+        <v>80162598</v>
       </c>
       <c r="B14" t="n">
-        <v>56411</v>
+        <v>90661</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2207,43 +2183,38 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100049</v>
+        <v>2058</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2251,10 +2222,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>592134.0979763891</v>
+        <v>592497.8616193662</v>
       </c>
       <c r="R14" t="n">
-        <v>6548644.907675757</v>
+        <v>6548689.170617439</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2281,7 +2252,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2019-07-16</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2291,7 +2262,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2019-07-16</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2305,6 +2276,7 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2316,17 +2288,17 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Bo Karlsson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>79389596</v>
+        <v>80162742</v>
       </c>
       <c r="B15" t="n">
-        <v>8377</v>
+        <v>90674</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2339,44 +2311,40 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>106545</v>
+        <v>5964</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Taljaskogen, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>592459.325562061</v>
+        <v>592510.9237765586</v>
       </c>
       <c r="R15" t="n">
-        <v>6548471.165323671</v>
+        <v>6548639.076599324</v>
       </c>
       <c r="S15" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2395,27 +2363,32 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2019-08-13</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2019-08-13</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2424,28 +2397,29 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Fredrik Enoksson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Fredrik Enoksson, Peter Lantz</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>79391160</v>
+        <v>80162754</v>
       </c>
       <c r="B16" t="n">
-        <v>89673</v>
+        <v>90649</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2454,46 +2428,44 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>658</v>
+        <v>4363</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(Pers.) Banker</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Taljaskogen, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>592087.9989139064</v>
+        <v>592419.1169046137</v>
       </c>
       <c r="R16" t="n">
-        <v>6548676.204676082</v>
+        <v>6548685.211562397</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2517,22 +2489,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2019-08-13</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2019-08-13</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2541,25 +2513,26 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Fredrik Enoksson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Fredrik Enoksson, Peter Lantz</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>80163081</v>
+        <v>80162783</v>
       </c>
       <c r="B17" t="n">
         <v>90674</v>
@@ -2598,14 +2571,14 @@
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>592646.9734783082</v>
+        <v>592423.9752445002</v>
       </c>
       <c r="R17" t="n">
-        <v>6548383.106054715</v>
+        <v>6548718.763403242</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2627,12 +2600,12 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2642,12 +2615,17 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2668,17 +2646,17 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Bo Karlsson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>80162774</v>
+        <v>80162650</v>
       </c>
       <c r="B18" t="n">
-        <v>90642</v>
+        <v>90319</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2687,37 +2665,29 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>150</v>
+        <v>4769</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
@@ -2726,10 +2696,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>592413.1728286413</v>
+        <v>592494.7906617853</v>
       </c>
       <c r="R18" t="n">
-        <v>6548717.988279536</v>
+        <v>6548666.978015247</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2799,10 +2769,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>80162598</v>
+        <v>80162635</v>
       </c>
       <c r="B19" t="n">
-        <v>90661</v>
+        <v>90665</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2811,37 +2781,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2058</v>
+        <v>4366</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
@@ -2850,10 +2812,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>592497.8616193662</v>
+        <v>592496.0500183221</v>
       </c>
       <c r="R19" t="n">
-        <v>6548689.170617439</v>
+        <v>6548678.839233772</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2923,10 +2885,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>80162742</v>
+        <v>80162748</v>
       </c>
       <c r="B20" t="n">
-        <v>90674</v>
+        <v>90665</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2939,21 +2901,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5964</v>
+        <v>4366</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2966,10 +2928,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>592510.9237765586</v>
+        <v>592453.2059521934</v>
       </c>
       <c r="R20" t="n">
-        <v>6548639.076599324</v>
+        <v>6548681.91950355</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3012,11 +2974,6 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3044,10 +3001,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>80162754</v>
+        <v>80162702</v>
       </c>
       <c r="B21" t="n">
-        <v>90649</v>
+        <v>90642</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3056,29 +3013,37 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4363</v>
+        <v>150</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+          <t>(Pers.) Fayod</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
@@ -3087,10 +3052,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>592419.1169046137</v>
+        <v>592476.213460432</v>
       </c>
       <c r="R21" t="n">
-        <v>6548685.211562397</v>
+        <v>6548668.072432645</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3160,10 +3125,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>80162783</v>
+        <v>80163334</v>
       </c>
       <c r="B22" t="n">
-        <v>90674</v>
+        <v>88902</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3172,29 +3137,37 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5964</v>
+        <v>5734</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+          <t>(Pers.:Fr.) Bourdot</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
@@ -3203,10 +3176,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>592423.9752445002</v>
+        <v>592059.0560574881</v>
       </c>
       <c r="R22" t="n">
-        <v>6548718.763403242</v>
+        <v>6548701.227524876</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3233,7 +3206,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3243,7 +3216,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3253,7 +3226,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Allmänt förekommande.</t>
+          <t>Obestämd ramaria.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3274,17 +3247,17 @@
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Bo Törnquist, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>80162650</v>
+        <v>80162812</v>
       </c>
       <c r="B23" t="n">
-        <v>90319</v>
+        <v>90642</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3293,29 +3266,37 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4769</v>
+        <v>150</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+          <t>(Pers.) Fayod</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
@@ -3324,10 +3305,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>592494.7906617853</v>
+        <v>592485.0115625586</v>
       </c>
       <c r="R23" t="n">
-        <v>6548666.978015247</v>
+        <v>6548687.831441859</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3397,7 +3378,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>80162635</v>
+        <v>80162746</v>
       </c>
       <c r="B24" t="n">
         <v>90665</v>
@@ -3440,10 +3421,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>592496.0500183221</v>
+        <v>592450.8916424015</v>
       </c>
       <c r="R24" t="n">
-        <v>6548678.839233772</v>
+        <v>6548671.061607856</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3513,7 +3494,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>80163063</v>
+        <v>80162811</v>
       </c>
       <c r="B25" t="n">
         <v>90674</v>
@@ -3552,14 +3533,14 @@
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>592598.220821107</v>
+        <v>592473.1542420721</v>
       </c>
       <c r="R25" t="n">
-        <v>6548332.02754331</v>
+        <v>6548688.059426697</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3581,12 +3562,12 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3596,12 +3577,17 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3622,17 +3608,17 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Bo Karlsson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>80162748</v>
+        <v>80162646</v>
       </c>
       <c r="B26" t="n">
-        <v>90665</v>
+        <v>90649</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3645,21 +3631,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4366</v>
+        <v>4363</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3672,10 +3658,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>592453.2059521934</v>
+        <v>592496.0500183221</v>
       </c>
       <c r="R26" t="n">
-        <v>6548681.91950355</v>
+        <v>6548678.839233772</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3745,10 +3731,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>80162537</v>
+        <v>80162719</v>
       </c>
       <c r="B27" t="n">
-        <v>90008</v>
+        <v>90674</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3761,45 +3747,37 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6031</v>
+        <v>5964</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>592494.2361768803</v>
+        <v>592472.8195420369</v>
       </c>
       <c r="R27" t="n">
-        <v>6548433.941977219</v>
+        <v>6548659.245943179</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3821,7 +3799,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3846,7 +3824,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Vid äldre tall.</t>
+          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3874,10 +3852,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>80162702</v>
+        <v>80162595</v>
       </c>
       <c r="B28" t="n">
-        <v>90642</v>
+        <v>90663</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3886,30 +3864,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>150</v>
+        <v>789</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Raggtaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Hydnellum mirabile</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
+          <t>(Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3925,10 +3903,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>592476.213460432</v>
+        <v>592497.8616193662</v>
       </c>
       <c r="R28" t="n">
-        <v>6548668.072432645</v>
+        <v>6548689.170617439</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3971,6 +3949,11 @@
       <c r="AB28" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Vid viltstig.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3998,10 +3981,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>80163121</v>
+        <v>80162777</v>
       </c>
       <c r="B29" t="n">
-        <v>90676</v>
+        <v>90665</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4010,49 +3993,41 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5966</v>
+        <v>4366</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>592751.9049274278</v>
+        <v>592423.9752445002</v>
       </c>
       <c r="R29" t="n">
-        <v>6548455.092725212</v>
+        <v>6548718.763403242</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -4079,7 +4054,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -4089,7 +4064,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -4115,17 +4090,17 @@
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Bo Karlsson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>80163334</v>
+        <v>80162751</v>
       </c>
       <c r="B30" t="n">
-        <v>88902</v>
+        <v>90649</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4134,37 +4109,29 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5734</v>
+        <v>4363</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Pers.) Banker</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
@@ -4173,10 +4140,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>592059.0560574881</v>
+        <v>592453.2059521934</v>
       </c>
       <c r="R30" t="n">
-        <v>6548701.227524876</v>
+        <v>6548681.91950355</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4203,7 +4170,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -4213,17 +4180,12 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Obestämd ramaria.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4244,17 +4206,17 @@
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Bo Karlsson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>80162812</v>
+        <v>80162570</v>
       </c>
       <c r="B31" t="n">
-        <v>90642</v>
+        <v>90674</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4263,37 +4225,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>150</v>
+        <v>5964</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
@@ -4302,10 +4256,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>592485.0115625586</v>
+        <v>592475.8971236403</v>
       </c>
       <c r="R31" t="n">
-        <v>6548687.831441859</v>
+        <v>6548659.834656947</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4348,6 +4302,11 @@
       <c r="AB31" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4375,10 +4334,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>80163016</v>
+        <v>80162640</v>
       </c>
       <c r="B32" t="n">
-        <v>90665</v>
+        <v>90674</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4391,21 +4350,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4366</v>
+        <v>5964</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4414,14 +4373,14 @@
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>592542.7676379033</v>
+        <v>592496.0500183221</v>
       </c>
       <c r="R32" t="n">
-        <v>6548408.879342608</v>
+        <v>6548678.839233772</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4443,12 +4402,12 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4458,12 +4417,17 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4484,17 +4448,17 @@
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Bo Karlsson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>80162746</v>
+        <v>80162738</v>
       </c>
       <c r="B33" t="n">
-        <v>90665</v>
+        <v>90674</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4507,21 +4471,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4366</v>
+        <v>5964</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4534,10 +4498,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>592450.8916424015</v>
+        <v>592490.8817847576</v>
       </c>
       <c r="R33" t="n">
-        <v>6548671.061607856</v>
+        <v>6548658.139064921</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4580,6 +4544,11 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4607,10 +4576,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>80162811</v>
+        <v>82405163</v>
       </c>
       <c r="B34" t="n">
-        <v>90674</v>
+        <v>98520</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4623,26 +4592,27 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4650,10 +4620,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>592473.1542420721</v>
+        <v>592184.0283332916</v>
       </c>
       <c r="R34" t="n">
-        <v>6548688.059426697</v>
+        <v>6548647.138243447</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4680,7 +4650,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4690,7 +4660,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4700,7 +4670,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Allmänt förekommande.</t>
+          <t>Enstak blåsippor i blom.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4728,10 +4698,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>80163053</v>
+        <v>87297026</v>
       </c>
       <c r="B35" t="n">
-        <v>90674</v>
+        <v>89673</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4740,41 +4710,49 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5964</v>
+        <v>658</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>592591.795261309</v>
+        <v>592079.9567740129</v>
       </c>
       <c r="R35" t="n">
-        <v>6548405.949193429</v>
+        <v>6548667.781191001</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4796,12 +4774,12 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4811,12 +4789,17 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Återfynd på granlåga. De flesta granarna i närområdet är dödade av granbarkborren. Både färska angrepp och angrepp från fjolåret..</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4837,17 +4820,17 @@
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Bo Karlsson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>80163070</v>
+        <v>87296723</v>
       </c>
       <c r="B36" t="n">
-        <v>90674</v>
+        <v>89392</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4856,25 +4839,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5964</v>
+        <v>1202</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4883,14 +4866,14 @@
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>592632.2458921084</v>
+        <v>592498.8551706013</v>
       </c>
       <c r="R36" t="n">
-        <v>6548310.21553408</v>
+        <v>6548648.043979204</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4912,12 +4895,12 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4927,12 +4910,17 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Återfynd på granlåga.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4953,17 +4941,17 @@
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Bo Karlsson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>80162646</v>
+        <v>87296761</v>
       </c>
       <c r="B37" t="n">
-        <v>90649</v>
+        <v>93235</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4976,26 +4964,35 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4363</v>
+        <v>210</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -5003,10 +5000,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>592496.0500183221</v>
+        <v>592517.0168524627</v>
       </c>
       <c r="R37" t="n">
-        <v>6548678.839233772</v>
+        <v>6548642.82452909</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -5033,7 +5030,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -5043,12 +5040,17 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>3 fräscha sporkapslar på kraftigt nedbruten rest av granlåga.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5076,10 +5078,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>80162978</v>
+        <v>87296694</v>
       </c>
       <c r="B38" t="n">
-        <v>90674</v>
+        <v>90665</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5092,37 +5094,45 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5964</v>
+        <v>4366</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>592539.1195020226</v>
+        <v>592487.9963351947</v>
       </c>
       <c r="R38" t="n">
-        <v>6548389.243241783</v>
+        <v>6548670.928951225</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -5144,12 +5154,12 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -5159,7 +5169,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -5192,7 +5202,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>80162719</v>
+        <v>87296628</v>
       </c>
       <c r="B39" t="n">
         <v>90674</v>
@@ -5225,8 +5235,16 @@
           <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
@@ -5235,10 +5253,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>592472.8195420369</v>
+        <v>592478.9930308497</v>
       </c>
       <c r="R39" t="n">
-        <v>6548659.245943179</v>
+        <v>6548680.999118994</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5265,7 +5283,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -5275,17 +5293,12 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5313,10 +5326,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>80162595</v>
+        <v>87296804</v>
       </c>
       <c r="B40" t="n">
-        <v>90663</v>
+        <v>4717</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5325,38 +5338,36 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>789</v>
+        <v>102306</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Raggtaggsvamp</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum mirabile</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Duftschmid, 1825)</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5364,10 +5375,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>592497.8616193662</v>
+        <v>592429.1934876081</v>
       </c>
       <c r="R40" t="n">
-        <v>6548689.170617439</v>
+        <v>6548652.019941922</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5394,7 +5405,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -5404,17 +5415,12 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>Vid viltstig.</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5442,10 +5448,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>80163046</v>
+        <v>87296904</v>
       </c>
       <c r="B41" t="n">
-        <v>90674</v>
+        <v>43464</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5458,37 +5464,43 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5964</v>
+        <v>101735</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Scardia boletella</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fabricius, 1794)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>592548.1720637593</v>
+        <v>592185.1105230334</v>
       </c>
       <c r="R41" t="n">
-        <v>6548419.812723699</v>
+        <v>6548687.800379345</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5510,12 +5522,12 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5525,12 +5537,17 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>Gnag- och kläckhål i fnöskticka på gammal björklåga.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5551,14 +5568,14 @@
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Bo Karlsson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>80162777</v>
+        <v>95883293</v>
       </c>
       <c r="B42" t="n">
         <v>90665</v>
@@ -5591,8 +5608,16 @@
           <t>Banker</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
@@ -5601,10 +5626,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>592423.9752445002</v>
+        <v>592488.3871526481</v>
       </c>
       <c r="R42" t="n">
-        <v>6548718.763403242</v>
+        <v>6548676.082214479</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5631,7 +5656,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -5641,12 +5666,17 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>På gränsen mellan levande och barkborredödade granar.</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5674,10 +5704,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>80162751</v>
+        <v>95883092</v>
       </c>
       <c r="B43" t="n">
-        <v>90649</v>
+        <v>90674</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5690,21 +5720,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4363</v>
+        <v>5964</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5717,10 +5747,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>592453.2059521934</v>
+        <v>592469.8904488256</v>
       </c>
       <c r="R43" t="n">
-        <v>6548681.91950355</v>
+        <v>6548695.181917308</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -5747,7 +5777,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -5757,12 +5787,17 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>Närstående granar ej angripna av granbarkborrar. Däremot är angränsadegranar angripna och dödade.</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5790,7 +5825,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>80163307</v>
+        <v>95883659</v>
       </c>
       <c r="B44" t="n">
         <v>90674</v>
@@ -5833,10 +5868,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>591682.7761678249</v>
+        <v>592516.0412298843</v>
       </c>
       <c r="R44" t="n">
-        <v>6548856.794839797</v>
+        <v>6548704.526851534</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5863,7 +5898,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -5873,7 +5908,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -5899,14 +5934,14 @@
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Bo Karlsson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>80162570</v>
+        <v>95883336</v>
       </c>
       <c r="B45" t="n">
         <v>90674</v>
@@ -5949,10 +5984,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>592475.8971236403</v>
+        <v>592470.1635922646</v>
       </c>
       <c r="R45" t="n">
-        <v>6548659.834656947</v>
+        <v>6548683.872154091</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5979,7 +6014,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -5989,7 +6024,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -5999,7 +6034,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Allmänt förekommande.</t>
+          <t>Närstående granar ej angripna av granbarkborrar. Däremot är angränsade granar angripna och dödade.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6027,7 +6062,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>80162640</v>
+        <v>95883718</v>
       </c>
       <c r="B46" t="n">
         <v>90674</v>
@@ -6070,10 +6105,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>592496.0500183221</v>
+        <v>592501.6413129888</v>
       </c>
       <c r="R46" t="n">
-        <v>6548678.839233772</v>
+        <v>6548639.366720563</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -6100,7 +6135,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
@@ -6110,7 +6145,7 @@
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
@@ -6120,7 +6155,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>Allmänt förekommande.</t>
+          <t>I anslutning till ännu ej barkborreangripna granar.</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6148,7 +6183,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>80162738</v>
+        <v>95883124</v>
       </c>
       <c r="B47" t="n">
         <v>90674</v>
@@ -6191,10 +6226,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>592490.8817847576</v>
+        <v>592451.9461610671</v>
       </c>
       <c r="R47" t="n">
-        <v>6548658.139064921</v>
+        <v>6548712.751813049</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -6221,7 +6256,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -6231,7 +6266,7 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
@@ -6241,7 +6276,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Allmänt förekommande.</t>
+          <t>Närstående granar ej angripna av granbarkborrar. Däremot är angränsade granar angripna och dödade.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6269,10 +6304,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>82404837</v>
+        <v>95883169</v>
       </c>
       <c r="B48" t="n">
-        <v>98520</v>
+        <v>90674</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6285,38 +6320,37 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>592530.9342923289</v>
+        <v>592455.6564469512</v>
       </c>
       <c r="R48" t="n">
-        <v>6548408.078958036</v>
+        <v>6548729.815801632</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -6338,12 +6372,12 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -6353,17 +6387,12 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>Enstaka blåsippor i blom.</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6391,10 +6420,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>82405163</v>
+        <v>95883709</v>
       </c>
       <c r="B49" t="n">
-        <v>98520</v>
+        <v>90674</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6407,27 +6436,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6435,10 +6463,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>592184.0283332916</v>
+        <v>592501.3308184006</v>
       </c>
       <c r="R49" t="n">
-        <v>6548647.138243447</v>
+        <v>6548652.21887141</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -6465,7 +6493,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -6475,7 +6503,7 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
@@ -6485,7 +6513,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>Enstak blåsippor i blom.</t>
+          <t>I anslutning till ännu ej barkborreangripna granar.</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6513,10 +6541,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>84112634</v>
+        <v>95883367</v>
       </c>
       <c r="B50" t="n">
-        <v>81972</v>
+        <v>90661</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6529,21 +6557,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1445</v>
+        <v>2058</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6560,14 +6588,14 @@
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>592607.7488771563</v>
+        <v>592478.0251207016</v>
       </c>
       <c r="R50" t="n">
-        <v>6548406.849411691</v>
+        <v>6548678.403833939</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -6589,12 +6617,12 @@
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2020-04-02</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -6604,7 +6632,7 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2020-04-02</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
@@ -6614,7 +6642,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>Två bombmurklor i sämre skick i anslutning till mossmatta i övre delen av sydsluttning, ca 8m ö om granlåga. Gammal granskog. Längre öster om lokalen är de flesta granarna dödade av granbarkborren.</t>
+          <t>Nära viltstig. Närstående granar ej angripna av granbarkborrar. Däremot är angränsade granar angripna och dödade.</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6642,10 +6670,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>87297026</v>
+        <v>70655188</v>
       </c>
       <c r="B51" t="n">
-        <v>89673</v>
+        <v>81972</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6654,30 +6682,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>658</v>
+        <v>1445</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Schmidel:Fr.) Rehm</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -6686,20 +6714,19 @@
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Taljaskogen, Srm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>592079.9567740129</v>
+        <v>592663.3053675652</v>
       </c>
       <c r="R51" t="n">
-        <v>6548667.781191001</v>
+        <v>6548389.674298235</v>
       </c>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6718,12 +6745,12 @@
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2018-04-16</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -6733,7 +6760,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2018-04-16</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -6743,7 +6770,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>Återfynd på granlåga. De flesta granarna i närområdet är dödade av granbarkborren. Både färska angrepp och angrepp från fjolåret..</t>
+          <t>Spridda i större område i hela sydsluttningen.</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6759,22 +6786,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Ove Unander</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Ove Unander</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>87296723</v>
+        <v>79003637</v>
       </c>
       <c r="B52" t="n">
-        <v>89392</v>
+        <v>93235</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6783,41 +6810,50 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1202</v>
+        <v>210</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>592498.8551706013</v>
+        <v>592546.037382876</v>
       </c>
       <c r="R52" t="n">
-        <v>6548648.043979204</v>
+        <v>6548422.847629313</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -6839,12 +6875,12 @@
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-07-16</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -6854,7 +6890,7 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-07-16</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
@@ -6864,7 +6900,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>Återfynd på granlåga.</t>
+          <t>Vid basen av gammal rötskadad granlåga.Gammal grandominerad skog med delvis angrepp av 8-tandad barkborre.</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6885,17 +6921,17 @@
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Bo Törnquist, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>87296761</v>
+        <v>79003677</v>
       </c>
       <c r="B53" t="n">
-        <v>93235</v>
+        <v>89392</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6904,50 +6940,41 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>210</v>
+        <v>1202</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>kapslar</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>592517.0168524627</v>
+        <v>592603.9751920738</v>
       </c>
       <c r="R53" t="n">
-        <v>6548642.82452909</v>
+        <v>6548285.867827895</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -6969,12 +6996,12 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-07-16</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
@@ -6984,7 +7011,7 @@
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-07-16</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
@@ -6994,7 +7021,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>3 fräscha sporkapslar på kraftigt nedbruten rest av granlåga.</t>
+          <t>På granlåga i anslutning till liten kulle. Gammal grandominerad skog med delvis angrepp av 8-tandad barkborre.</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -7015,17 +7042,17 @@
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Bo Törnquist, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>87296694</v>
+        <v>79003640</v>
       </c>
       <c r="B54" t="n">
-        <v>90665</v>
+        <v>93235</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -7038,45 +7065,46 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4366</v>
+        <v>210</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>kapslar</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>592487.9963351947</v>
+        <v>592652.0417776521</v>
       </c>
       <c r="R54" t="n">
-        <v>6548670.928951225</v>
+        <v>6548407.920876611</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -7098,12 +7126,12 @@
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-07-16</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
@@ -7113,12 +7141,17 @@
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-07-16</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>På gammal rötskadad granlåga. Gammal grandominerad skog med delvis angrepp av 8-tandad barkborre.</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -7139,17 +7172,17 @@
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Bo Törnquist, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>87296628</v>
+        <v>79389596</v>
       </c>
       <c r="B55" t="n">
-        <v>90674</v>
+        <v>8377</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7162,48 +7195,44 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5964</v>
+        <v>106545</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Taljaskogen, Srm</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>592478.9930308497</v>
+        <v>592459.325562061</v>
       </c>
       <c r="R55" t="n">
-        <v>6548680.999118994</v>
+        <v>6548471.165323671</v>
       </c>
       <c r="S55" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -7222,27 +7251,27 @@
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-08-13</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-08-13</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7251,29 +7280,28 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
-      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Fredrik Enoksson</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Fredrik Enoksson, Peter Lantz</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>87296804</v>
+        <v>80163081</v>
       </c>
       <c r="B56" t="n">
-        <v>4717</v>
+        <v>90674</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7286,43 +7314,37 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>102306</v>
+        <v>5964</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>592429.1934876081</v>
+        <v>592646.9734783082</v>
       </c>
       <c r="R56" t="n">
-        <v>6548652.019941922</v>
+        <v>6548383.106054715</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -7344,12 +7366,12 @@
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
@@ -7359,7 +7381,7 @@
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -7385,17 +7407,17 @@
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Bo Törnquist, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>87296904</v>
+        <v>80163063</v>
       </c>
       <c r="B57" t="n">
-        <v>43464</v>
+        <v>90674</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7408,43 +7430,37 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>101735</v>
+        <v>5964</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Scardia boletella</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fabricius, 1794)</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>592185.1105230334</v>
+        <v>592598.220821107</v>
       </c>
       <c r="R57" t="n">
-        <v>6548687.800379345</v>
+        <v>6548332.02754331</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -7466,12 +7482,12 @@
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -7481,17 +7497,12 @@
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>Gnag- och kläckhål i fnöskticka på gammal björklåga.</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7512,17 +7523,17 @@
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Bo Törnquist, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>88206956</v>
+        <v>80162537</v>
       </c>
       <c r="B58" t="n">
-        <v>90674</v>
+        <v>90008</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7535,38 +7546,48 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5964</v>
+        <v>6031</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
+          <t>(Wulfen:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Flen, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>592549.9558076032</v>
+        <v>592494.2361768803</v>
       </c>
       <c r="R58" t="n">
-        <v>6548324.687578475</v>
+        <v>6548433.941977219</v>
       </c>
       <c r="S58" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7590,22 +7611,27 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Vid äldre tall.</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7614,28 +7640,29 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
+      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Andreas Grabs</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Andreas Grabs</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>88208442</v>
+        <v>80163121</v>
       </c>
       <c r="B59" t="n">
-        <v>85253</v>
+        <v>90676</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7644,42 +7671,52 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1988</v>
+        <v>5966</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Kryddspindling</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Cortinarius percomis</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Fr.</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Flen, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>592590.3886370506</v>
+        <v>592751.9049274278</v>
       </c>
       <c r="R59" t="n">
-        <v>6548357.559507517</v>
+        <v>6548455.092725212</v>
       </c>
       <c r="S59" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7698,27 +7735,27 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7727,28 +7764,29 @@
       <c r="AE59" t="b">
         <v>0</v>
       </c>
+      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Andreas Grabs</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Andreas Grabs</t>
+          <t>Bo Törnquist, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>95882961</v>
+        <v>80163016</v>
       </c>
       <c r="B60" t="n">
-        <v>101246</v>
+        <v>90665</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7757,39 +7795,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>706</v>
+        <v>4366</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Svedjenäva</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Geranium bohemicum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7797,10 +7826,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>592531.1387380073</v>
+        <v>592542.7676379033</v>
       </c>
       <c r="R60" t="n">
-        <v>6548420.944328959</v>
+        <v>6548408.879342608</v>
       </c>
       <c r="S60" t="n">
         <v>5</v>
@@ -7827,7 +7856,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
@@ -7837,17 +7866,12 @@
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>En kraftig planta som delvis fortfarande är i blom. Nyligen avverkat hygge efter kraftigt angrepp av granbarkborrar.</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7868,17 +7892,17 @@
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Bo Törnquist, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>95883293</v>
+        <v>80163053</v>
       </c>
       <c r="B61" t="n">
-        <v>90665</v>
+        <v>90674</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7891,45 +7915,37 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4366</v>
+        <v>5964</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>592488.3871526481</v>
+        <v>592591.795261309</v>
       </c>
       <c r="R61" t="n">
-        <v>6548676.082214479</v>
+        <v>6548405.949193429</v>
       </c>
       <c r="S61" t="n">
         <v>5</v>
@@ -7951,12 +7967,12 @@
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
@@ -7966,17 +7982,12 @@
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>På gränsen mellan levande och barkborredödade granar.</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7997,14 +8008,14 @@
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Bo Törnquist, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>95883092</v>
+        <v>80163070</v>
       </c>
       <c r="B62" t="n">
         <v>90674</v>
@@ -8043,14 +8054,14 @@
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>592469.8904488256</v>
+        <v>592632.2458921084</v>
       </c>
       <c r="R62" t="n">
-        <v>6548695.181917308</v>
+        <v>6548310.21553408</v>
       </c>
       <c r="S62" t="n">
         <v>5</v>
@@ -8072,12 +8083,12 @@
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -8087,17 +8098,12 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>Närstående granar ej angripna av granbarkborrar. Däremot är angränsadegranar angripna och dödade.</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -8118,17 +8124,17 @@
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Bo Törnquist, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>95882421</v>
+        <v>80162978</v>
       </c>
       <c r="B63" t="n">
-        <v>101246</v>
+        <v>90674</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8137,39 +8143,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>706</v>
+        <v>5964</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Svedjenäva</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Geranium bohemicum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
@@ -8177,10 +8174,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>592531.5487140946</v>
+        <v>592539.1195020226</v>
       </c>
       <c r="R63" t="n">
-        <v>6548403.978458477</v>
+        <v>6548389.243241783</v>
       </c>
       <c r="S63" t="n">
         <v>5</v>
@@ -8207,7 +8204,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
@@ -8217,17 +8214,12 @@
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>Två kraftiga plantor delvis fortfarande i blom. Nyligen avverkat hygge efter kraftigt angrepp av granbarkborrar.</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8255,7 +8247,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>95883659</v>
+        <v>80163046</v>
       </c>
       <c r="B64" t="n">
         <v>90674</v>
@@ -8294,14 +8286,14 @@
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>592516.0412298843</v>
+        <v>592548.1720637593</v>
       </c>
       <c r="R64" t="n">
-        <v>6548704.526851534</v>
+        <v>6548419.812723699</v>
       </c>
       <c r="S64" t="n">
         <v>5</v>
@@ -8323,12 +8315,12 @@
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -8338,7 +8330,7 @@
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
@@ -8364,17 +8356,17 @@
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Bo Törnquist, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>95883336</v>
+        <v>82404837</v>
       </c>
       <c r="B65" t="n">
-        <v>90674</v>
+        <v>98520</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8387,37 +8379,38 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>592470.1635922646</v>
+        <v>592530.9342923289</v>
       </c>
       <c r="R65" t="n">
-        <v>6548683.872154091</v>
+        <v>6548408.078958036</v>
       </c>
       <c r="S65" t="n">
         <v>5</v>
@@ -8439,12 +8432,12 @@
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -8454,7 +8447,7 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
@@ -8464,7 +8457,7 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>Närstående granar ej angripna av granbarkborrar. Däremot är angränsade granar angripna och dödade.</t>
+          <t>Enstaka blåsippor i blom.</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8492,10 +8485,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>95883718</v>
+        <v>84112634</v>
       </c>
       <c r="B66" t="n">
-        <v>90674</v>
+        <v>81972</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8504,41 +8497,49 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5964</v>
+        <v>1445</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>592501.6413129888</v>
+        <v>592607.7488771563</v>
       </c>
       <c r="R66" t="n">
-        <v>6548639.366720563</v>
+        <v>6548406.849411691</v>
       </c>
       <c r="S66" t="n">
         <v>5</v>
@@ -8560,12 +8561,12 @@
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -8575,7 +8576,7 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
@@ -8585,7 +8586,7 @@
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>I anslutning till ännu ej barkborreangripna granar.</t>
+          <t>Två bombmurklor i sämre skick i anslutning till mossmatta i övre delen av sydsluttning, ca 8m ö om granlåga. Gammal granskog. Längre öster om lokalen är de flesta granarna dödade av granbarkborren.</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8613,7 +8614,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>95883124</v>
+        <v>88206956</v>
       </c>
       <c r="B67" t="n">
         <v>90674</v>
@@ -8647,22 +8648,20 @@
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Flen, Srm</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>592451.9461610671</v>
+        <v>592549.9558076032</v>
       </c>
       <c r="R67" t="n">
-        <v>6548712.751813049</v>
+        <v>6548324.687578475</v>
       </c>
       <c r="S67" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8681,32 +8680,27 @@
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>Närstående granar ej angripna av granbarkborrar. Däremot är angränsade granar angripna och dödade.</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8715,29 +8709,28 @@
       <c r="AE67" t="b">
         <v>0</v>
       </c>
-      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
       </c>
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Andreas Grabs</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Andreas Grabs</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>95883169</v>
+        <v>88208442</v>
       </c>
       <c r="B68" t="n">
-        <v>90674</v>
+        <v>85253</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8750,40 +8743,38 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5964</v>
+        <v>1988</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Kryddspindling</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Cortinarius percomis</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Flen, Srm</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>592455.6564469512</v>
+        <v>592590.3886370506</v>
       </c>
       <c r="R68" t="n">
-        <v>6548729.815801632</v>
+        <v>6548357.559507517</v>
       </c>
       <c r="S68" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -8802,27 +8793,27 @@
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8831,29 +8822,28 @@
       <c r="AE68" t="b">
         <v>0</v>
       </c>
-      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
       </c>
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Andreas Grabs</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Andreas Grabs</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>95883709</v>
+        <v>95882961</v>
       </c>
       <c r="B69" t="n">
-        <v>90674</v>
+        <v>101246</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8862,41 +8852,50 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5964</v>
+        <v>706</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svedjenäva</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Geranium bohemicum</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>592501.3308184006</v>
+        <v>592531.1387380073</v>
       </c>
       <c r="R69" t="n">
-        <v>6548652.21887141</v>
+        <v>6548420.944328959</v>
       </c>
       <c r="S69" t="n">
         <v>5</v>
@@ -8918,7 +8917,7 @@
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
@@ -8943,7 +8942,7 @@
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>I anslutning till ännu ej barkborreangripna granar.</t>
+          <t>En kraftig planta som delvis fortfarande är i blom. Nyligen avverkat hygge efter kraftigt angrepp av granbarkborrar.</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8971,10 +8970,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>95883367</v>
+        <v>95882421</v>
       </c>
       <c r="B70" t="n">
-        <v>90661</v>
+        <v>101246</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8983,25 +8982,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2058</v>
+        <v>706</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Svedjenäva</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Geranium bohemicum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -9011,21 +9010,22 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>592478.0251207016</v>
+        <v>592531.5487140946</v>
       </c>
       <c r="R70" t="n">
-        <v>6548678.403833939</v>
+        <v>6548403.978458477</v>
       </c>
       <c r="S70" t="n">
         <v>5</v>
@@ -9047,7 +9047,7 @@
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
@@ -9072,7 +9072,7 @@
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>Nära viltstig. Närstående granar ej angripna av granbarkborrar. Däremot är angränsade granar angripna och dödade.</t>
+          <t>Två kraftiga plantor delvis fortfarande i blom. Nyligen avverkat hygge efter kraftigt angrepp av granbarkborrar.</t>
         </is>
       </c>
       <c r="AD70" t="b">

--- a/artfynd/A 16014-2019.xlsx
+++ b/artfynd/A 16014-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80163307</v>
+        <v>64491456</v>
       </c>
       <c r="B2" t="n">
-        <v>90674</v>
+        <v>81972</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,44 +692,51 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5964</v>
+        <v>1445</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Skogen vid Taljasjön Brogetorp, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>591682.7761678249</v>
+        <v>592414.3330418973</v>
       </c>
       <c r="R2" t="n">
-        <v>6548856.794839797</v>
+        <v>6548691.268650549</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -753,7 +760,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2017-03-19</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -763,12 +770,17 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2017-03-19</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Där stigarna delar på sig ovanför Nallestugan..</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -784,22 +796,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Ove Unander</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Bo Karlsson</t>
+          <t>Ove Unander</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>64491456</v>
+        <v>67468361</v>
       </c>
       <c r="B3" t="n">
-        <v>81972</v>
+        <v>86136</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,30 +820,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1445</v>
+        <v>4379</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Toppvaxskivling</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Hygrocybe conica</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
+          <t>(Schaeff.) P.Kumm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -842,14 +854,14 @@
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Skogen vid Taljasjön Brogetorp, Srm</t>
+          <t>Taljasjön Nallestugan 200 meter ovanför, Srm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>592414.3330418973</v>
+        <v>592375.7148648208</v>
       </c>
       <c r="R3" t="n">
-        <v>6548691.268650549</v>
+        <v>6548711.426222452</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -876,7 +888,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2017-03-19</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -886,17 +898,12 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2017-03-19</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Där stigarna delar på sig ovanför Nallestugan..</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -924,10 +931,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67468361</v>
+        <v>70655188</v>
       </c>
       <c r="B4" t="n">
-        <v>86136</v>
+        <v>81972</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -936,30 +943,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4379</v>
+        <v>1445</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Toppvaxskivling</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hygrocybe conica</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schaeff.) P.Kumm.</t>
+          <t>(Schmidel:Fr.) Rehm</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -970,17 +977,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Taljasjön Nallestugan 200 meter ovanför, Srm</t>
+          <t>Taljaskogen, Srm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>592375.7148648208</v>
+        <v>592663.3053675652</v>
       </c>
       <c r="R4" t="n">
-        <v>6548711.426222452</v>
+        <v>6548389.674298235</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -999,12 +1006,12 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2017-09-07</t>
+          <t>2018-04-16</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1014,12 +1021,17 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2017-09-07</t>
+          <t>2018-04-16</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Spridda i större område i hela sydsluttningen.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1551,7 +1563,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>79003804</v>
+        <v>79003637</v>
       </c>
       <c r="B9" t="n">
         <v>93235</v>
@@ -1586,7 +1598,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1599,14 +1611,14 @@
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>592505.8540406533</v>
+        <v>592546.037382876</v>
       </c>
       <c r="R9" t="n">
-        <v>6548656.957614895</v>
+        <v>6548422.847629313</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1628,7 +1640,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1653,7 +1665,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>På rotben av gammal rötskadad granlåga.Nordsluttning med gammal grandominerad skog med delvis inslag av tall och gammal asp. Död ved finns ojämnt spritt inom området. Delvis förekomst av mossbeklädda block.</t>
+          <t>Vid basen av gammal rötskadad granlåga.Gammal grandominerad skog med delvis angrepp av 8-tandad barkborre.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1681,7 +1693,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>79003792</v>
+        <v>79003677</v>
       </c>
       <c r="B10" t="n">
         <v>89392</v>
@@ -1720,14 +1732,14 @@
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>592505.8540406533</v>
+        <v>592603.9751920738</v>
       </c>
       <c r="R10" t="n">
-        <v>6548656.957614895</v>
+        <v>6548285.867827895</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1749,7 +1761,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1774,7 +1786,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>På gammal granlåga. Nordsluttning med gammal grandominerad skog med delvis inslag av tall och gammal asp. Död ved finns ojämnt spritt inom området. Delvis förekomst av mossbeklädda block.</t>
+          <t>På granlåga i anslutning till liten kulle. Gammal grandominerad skog med delvis angrepp av 8-tandad barkborre.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1802,10 +1814,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>79009165</v>
+        <v>79003640</v>
       </c>
       <c r="B11" t="n">
-        <v>56411</v>
+        <v>93235</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1814,54 +1826,50 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100049</v>
+        <v>210</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>592134.0979763891</v>
+        <v>592652.0417776521</v>
       </c>
       <c r="R11" t="n">
-        <v>6548644.907675757</v>
+        <v>6548407.920876611</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1883,7 +1891,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1906,12 +1914,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>På gammal rötskadad granlåga. Gammal grandominerad skog med delvis angrepp av 8-tandad barkborre.</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1930,10 +1944,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>79391160</v>
+        <v>79003804</v>
       </c>
       <c r="B12" t="n">
-        <v>89673</v>
+        <v>93235</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1942,46 +1956,53 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>658</v>
+        <v>210</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>kapslar</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Taljaskogen, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>592087.9989139064</v>
+        <v>592505.8540406533</v>
       </c>
       <c r="R12" t="n">
-        <v>6548676.204676082</v>
+        <v>6548656.957614895</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2005,22 +2026,27 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2019-08-13</t>
+          <t>2019-07-16</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2019-08-13</t>
+          <t>2019-07-16</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>På rotben av gammal rötskadad granlåga.Nordsluttning med gammal grandominerad skog med delvis inslag av tall och gammal asp. Död ved finns ojämnt spritt inom området. Delvis förekomst av mossbeklädda block.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2029,28 +2055,29 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Fredrik Enoksson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Fredrik Enoksson, Peter Lantz</t>
+          <t>Bo Törnquist, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>80162774</v>
+        <v>79003792</v>
       </c>
       <c r="B13" t="n">
-        <v>90642</v>
+        <v>89392</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2059,37 +2086,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>150</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
@@ -2098,10 +2117,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>592413.1728286413</v>
+        <v>592505.8540406533</v>
       </c>
       <c r="R13" t="n">
-        <v>6548717.988279536</v>
+        <v>6548656.957614895</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2128,7 +2147,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2019-07-16</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2138,12 +2157,17 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2019-07-16</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>På gammal granlåga. Nordsluttning med gammal grandominerad skog med delvis inslag av tall och gammal asp. Död ved finns ojämnt spritt inom området. Delvis förekomst av mossbeklädda block.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2164,17 +2188,17 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Bo Törnquist, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>80162598</v>
+        <v>79009165</v>
       </c>
       <c r="B14" t="n">
-        <v>90661</v>
+        <v>56411</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2183,38 +2207,43 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2058</v>
+        <v>100049</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2222,10 +2251,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>592497.8616193662</v>
+        <v>592134.0979763891</v>
       </c>
       <c r="R14" t="n">
-        <v>6548689.170617439</v>
+        <v>6548644.907675757</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2252,7 +2281,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2019-07-16</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2262,7 +2291,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2019-07-16</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2276,7 +2305,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2288,17 +2316,17 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Bo Törnquist, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>80162742</v>
+        <v>79389596</v>
       </c>
       <c r="B15" t="n">
-        <v>90674</v>
+        <v>8377</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2311,40 +2339,44 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5964</v>
+        <v>106545</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Taljaskogen, Srm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>592510.9237765586</v>
+        <v>592459.325562061</v>
       </c>
       <c r="R15" t="n">
-        <v>6548639.076599324</v>
+        <v>6548471.165323671</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2363,32 +2395,27 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2019-08-13</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2019-08-13</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande.</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2397,29 +2424,28 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Fredrik Enoksson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Fredrik Enoksson, Peter Lantz</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>80162754</v>
+        <v>79391160</v>
       </c>
       <c r="B16" t="n">
-        <v>90649</v>
+        <v>89673</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2428,44 +2454,46 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4363</v>
+        <v>658</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Taljaskogen, Srm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>592419.1169046137</v>
+        <v>592087.9989139064</v>
       </c>
       <c r="R16" t="n">
-        <v>6548685.211562397</v>
+        <v>6548676.204676082</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2489,22 +2517,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2019-08-13</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2019-08-13</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2513,26 +2541,25 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Fredrik Enoksson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Fredrik Enoksson, Peter Lantz</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>80162783</v>
+        <v>80163081</v>
       </c>
       <c r="B17" t="n">
         <v>90674</v>
@@ -2571,14 +2598,14 @@
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>592423.9752445002</v>
+        <v>592646.9734783082</v>
       </c>
       <c r="R17" t="n">
-        <v>6548718.763403242</v>
+        <v>6548383.106054715</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2600,12 +2627,12 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2615,17 +2642,12 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2646,17 +2668,17 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Bo Törnquist, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>80162650</v>
+        <v>80162774</v>
       </c>
       <c r="B18" t="n">
-        <v>90319</v>
+        <v>90642</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2665,29 +2687,37 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4769</v>
+        <v>150</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+          <t>(Pers.) Fayod</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
@@ -2696,10 +2726,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>592494.7906617853</v>
+        <v>592413.1728286413</v>
       </c>
       <c r="R18" t="n">
-        <v>6548666.978015247</v>
+        <v>6548717.988279536</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2769,10 +2799,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>80162635</v>
+        <v>80162598</v>
       </c>
       <c r="B19" t="n">
-        <v>90665</v>
+        <v>90661</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2781,29 +2811,37 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4366</v>
+        <v>2058</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
@@ -2812,10 +2850,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>592496.0500183221</v>
+        <v>592497.8616193662</v>
       </c>
       <c r="R19" t="n">
-        <v>6548678.839233772</v>
+        <v>6548689.170617439</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2885,10 +2923,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>80162748</v>
+        <v>80162742</v>
       </c>
       <c r="B20" t="n">
-        <v>90665</v>
+        <v>90674</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2901,21 +2939,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4366</v>
+        <v>5964</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2928,10 +2966,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>592453.2059521934</v>
+        <v>592510.9237765586</v>
       </c>
       <c r="R20" t="n">
-        <v>6548681.91950355</v>
+        <v>6548639.076599324</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2974,6 +3012,11 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3001,10 +3044,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>80162702</v>
+        <v>80162754</v>
       </c>
       <c r="B21" t="n">
-        <v>90642</v>
+        <v>90649</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3013,37 +3056,29 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>150</v>
+        <v>4363</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Pers.) Banker</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
@@ -3052,10 +3087,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>592476.213460432</v>
+        <v>592419.1169046137</v>
       </c>
       <c r="R21" t="n">
-        <v>6548668.072432645</v>
+        <v>6548685.211562397</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3125,10 +3160,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>80163334</v>
+        <v>80162783</v>
       </c>
       <c r="B22" t="n">
-        <v>88902</v>
+        <v>90674</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3137,37 +3172,29 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5734</v>
+        <v>5964</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
@@ -3176,10 +3203,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>592059.0560574881</v>
+        <v>592423.9752445002</v>
       </c>
       <c r="R22" t="n">
-        <v>6548701.227524876</v>
+        <v>6548718.763403242</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3206,7 +3233,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3216,7 +3243,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3226,7 +3253,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Obestämd ramaria.</t>
+          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3247,17 +3274,17 @@
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Bo Karlsson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>80162812</v>
+        <v>80162650</v>
       </c>
       <c r="B23" t="n">
-        <v>90642</v>
+        <v>90319</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3266,37 +3293,29 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>150</v>
+        <v>4769</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
@@ -3305,10 +3324,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>592485.0115625586</v>
+        <v>592494.7906617853</v>
       </c>
       <c r="R23" t="n">
-        <v>6548687.831441859</v>
+        <v>6548666.978015247</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3378,7 +3397,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>80162746</v>
+        <v>80162635</v>
       </c>
       <c r="B24" t="n">
         <v>90665</v>
@@ -3421,10 +3440,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>592450.8916424015</v>
+        <v>592496.0500183221</v>
       </c>
       <c r="R24" t="n">
-        <v>6548671.061607856</v>
+        <v>6548678.839233772</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3494,7 +3513,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>80162811</v>
+        <v>80163063</v>
       </c>
       <c r="B25" t="n">
         <v>90674</v>
@@ -3533,14 +3552,14 @@
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>592473.1542420721</v>
+        <v>592598.220821107</v>
       </c>
       <c r="R25" t="n">
-        <v>6548688.059426697</v>
+        <v>6548332.02754331</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3562,12 +3581,12 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3577,17 +3596,12 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3608,17 +3622,17 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Bo Törnquist, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>80162646</v>
+        <v>80162748</v>
       </c>
       <c r="B26" t="n">
-        <v>90649</v>
+        <v>90665</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3631,21 +3645,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4363</v>
+        <v>4366</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3658,10 +3672,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>592496.0500183221</v>
+        <v>592453.2059521934</v>
       </c>
       <c r="R26" t="n">
-        <v>6548678.839233772</v>
+        <v>6548681.91950355</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3731,10 +3745,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>80162719</v>
+        <v>80162537</v>
       </c>
       <c r="B27" t="n">
-        <v>90674</v>
+        <v>90008</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3747,37 +3761,45 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5964</v>
+        <v>6031</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+          <t>(Wulfen:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>592472.8195420369</v>
+        <v>592494.2361768803</v>
       </c>
       <c r="R27" t="n">
-        <v>6548659.245943179</v>
+        <v>6548433.941977219</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3799,7 +3821,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3824,7 +3846,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Allmänt förekommande.</t>
+          <t>Vid äldre tall.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3852,10 +3874,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>80162595</v>
+        <v>80162702</v>
       </c>
       <c r="B28" t="n">
-        <v>90663</v>
+        <v>90642</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3864,30 +3886,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>789</v>
+        <v>150</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Raggtaggsvamp</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum mirabile</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) P.Karst.</t>
+          <t>(Pers.) Fayod</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3903,10 +3925,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>592497.8616193662</v>
+        <v>592476.213460432</v>
       </c>
       <c r="R28" t="n">
-        <v>6548689.170617439</v>
+        <v>6548668.072432645</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3949,11 +3971,6 @@
       <c r="AB28" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Vid viltstig.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3981,10 +3998,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>80162777</v>
+        <v>80163121</v>
       </c>
       <c r="B29" t="n">
-        <v>90665</v>
+        <v>90676</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3993,41 +4010,49 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4366</v>
+        <v>5966</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>592423.9752445002</v>
+        <v>592751.9049274278</v>
       </c>
       <c r="R29" t="n">
-        <v>6548718.763403242</v>
+        <v>6548455.092725212</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -4054,7 +4079,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -4064,7 +4089,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -4090,17 +4115,17 @@
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Bo Törnquist, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>80162751</v>
+        <v>80163334</v>
       </c>
       <c r="B30" t="n">
-        <v>90649</v>
+        <v>88902</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4109,29 +4134,37 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4363</v>
+        <v>5734</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+          <t>(Pers.:Fr.) Bourdot</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
@@ -4140,10 +4173,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>592453.2059521934</v>
+        <v>592059.0560574881</v>
       </c>
       <c r="R30" t="n">
-        <v>6548681.91950355</v>
+        <v>6548701.227524876</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4170,7 +4203,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -4180,12 +4213,17 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Obestämd ramaria.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4206,17 +4244,17 @@
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Bo Törnquist, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>80162570</v>
+        <v>80162812</v>
       </c>
       <c r="B31" t="n">
-        <v>90674</v>
+        <v>90642</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4225,29 +4263,37 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5964</v>
+        <v>150</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+          <t>(Pers.) Fayod</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
@@ -4256,10 +4302,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>592475.8971236403</v>
+        <v>592485.0115625586</v>
       </c>
       <c r="R31" t="n">
-        <v>6548659.834656947</v>
+        <v>6548687.831441859</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4302,11 +4348,6 @@
       <c r="AB31" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4334,10 +4375,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>80162640</v>
+        <v>80163016</v>
       </c>
       <c r="B32" t="n">
-        <v>90674</v>
+        <v>90665</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4350,21 +4391,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5964</v>
+        <v>4366</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4373,14 +4414,14 @@
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>592496.0500183221</v>
+        <v>592542.7676379033</v>
       </c>
       <c r="R32" t="n">
-        <v>6548678.839233772</v>
+        <v>6548408.879342608</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4402,12 +4443,12 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4417,17 +4458,12 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4448,17 +4484,17 @@
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Bo Törnquist, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>80162738</v>
+        <v>80162746</v>
       </c>
       <c r="B33" t="n">
-        <v>90674</v>
+        <v>90665</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4471,21 +4507,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5964</v>
+        <v>4366</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4498,10 +4534,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>592490.8817847576</v>
+        <v>592450.8916424015</v>
       </c>
       <c r="R33" t="n">
-        <v>6548658.139064921</v>
+        <v>6548671.061607856</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4544,11 +4580,6 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4576,10 +4607,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>82405163</v>
+        <v>80162811</v>
       </c>
       <c r="B34" t="n">
-        <v>98520</v>
+        <v>90674</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4592,27 +4623,26 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4620,10 +4650,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>592184.0283332916</v>
+        <v>592473.1542420721</v>
       </c>
       <c r="R34" t="n">
-        <v>6548647.138243447</v>
+        <v>6548688.059426697</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4650,7 +4680,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4660,7 +4690,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4670,7 +4700,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Enstak blåsippor i blom.</t>
+          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4698,10 +4728,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>87297026</v>
+        <v>80163053</v>
       </c>
       <c r="B35" t="n">
-        <v>89673</v>
+        <v>90674</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4710,49 +4740,41 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>658</v>
+        <v>5964</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>592079.9567740129</v>
+        <v>592591.795261309</v>
       </c>
       <c r="R35" t="n">
-        <v>6548667.781191001</v>
+        <v>6548405.949193429</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4774,12 +4796,12 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4789,17 +4811,12 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Återfynd på granlåga. De flesta granarna i närområdet är dödade av granbarkborren. Både färska angrepp och angrepp från fjolåret..</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4820,17 +4837,17 @@
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Bo Törnquist, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>87296723</v>
+        <v>80163070</v>
       </c>
       <c r="B36" t="n">
-        <v>89392</v>
+        <v>90674</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4839,25 +4856,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1202</v>
+        <v>5964</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4866,14 +4883,14 @@
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>592498.8551706013</v>
+        <v>592632.2458921084</v>
       </c>
       <c r="R36" t="n">
-        <v>6548648.043979204</v>
+        <v>6548310.21553408</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4895,12 +4912,12 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4910,17 +4927,12 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Återfynd på granlåga.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4941,17 +4953,17 @@
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Bo Törnquist, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>87296761</v>
+        <v>80162646</v>
       </c>
       <c r="B37" t="n">
-        <v>93235</v>
+        <v>90649</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4964,35 +4976,26 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>210</v>
+        <v>4363</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>kapslar</t>
-        </is>
-      </c>
+          <t>(Pers.) Banker</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -5000,10 +5003,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>592517.0168524627</v>
+        <v>592496.0500183221</v>
       </c>
       <c r="R37" t="n">
-        <v>6548642.82452909</v>
+        <v>6548678.839233772</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -5030,7 +5033,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -5040,17 +5043,12 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>3 fräscha sporkapslar på kraftigt nedbruten rest av granlåga.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5078,10 +5076,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>87296694</v>
+        <v>80162978</v>
       </c>
       <c r="B38" t="n">
-        <v>90665</v>
+        <v>90674</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5094,45 +5092,37 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4366</v>
+        <v>5964</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>592487.9963351947</v>
+        <v>592539.1195020226</v>
       </c>
       <c r="R38" t="n">
-        <v>6548670.928951225</v>
+        <v>6548389.243241783</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -5154,12 +5144,12 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -5169,7 +5159,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -5202,7 +5192,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>87296628</v>
+        <v>80162719</v>
       </c>
       <c r="B39" t="n">
         <v>90674</v>
@@ -5235,16 +5225,8 @@
           <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
@@ -5253,10 +5235,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>592478.9930308497</v>
+        <v>592472.8195420369</v>
       </c>
       <c r="R39" t="n">
-        <v>6548680.999118994</v>
+        <v>6548659.245943179</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5283,7 +5265,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -5293,12 +5275,17 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5326,10 +5313,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>87296804</v>
+        <v>80162595</v>
       </c>
       <c r="B40" t="n">
-        <v>4717</v>
+        <v>90663</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5338,36 +5325,38 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>102306</v>
+        <v>789</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Raggtaggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Hydnellum mirabile</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+          <t>(Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5375,10 +5364,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>592429.1934876081</v>
+        <v>592497.8616193662</v>
       </c>
       <c r="R40" t="n">
-        <v>6548652.019941922</v>
+        <v>6548689.170617439</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5405,7 +5394,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -5415,12 +5404,17 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Vid viltstig.</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5448,10 +5442,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>87296904</v>
+        <v>80163046</v>
       </c>
       <c r="B41" t="n">
-        <v>43464</v>
+        <v>90674</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5464,43 +5458,37 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>101735</v>
+        <v>5964</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Scardia boletella</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fabricius, 1794)</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>592185.1105230334</v>
+        <v>592548.1720637593</v>
       </c>
       <c r="R41" t="n">
-        <v>6548687.800379345</v>
+        <v>6548419.812723699</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5522,12 +5510,12 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5537,17 +5525,12 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>Gnag- och kläckhål i fnöskticka på gammal björklåga.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5568,14 +5551,14 @@
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Bo Törnquist, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>95883293</v>
+        <v>80162777</v>
       </c>
       <c r="B42" t="n">
         <v>90665</v>
@@ -5608,16 +5591,8 @@
           <t>Banker</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
@@ -5626,10 +5601,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>592488.3871526481</v>
+        <v>592423.9752445002</v>
       </c>
       <c r="R42" t="n">
-        <v>6548676.082214479</v>
+        <v>6548718.763403242</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5656,7 +5631,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -5666,17 +5641,12 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>På gränsen mellan levande och barkborredödade granar.</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5704,10 +5674,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>95883092</v>
+        <v>80162751</v>
       </c>
       <c r="B43" t="n">
-        <v>90674</v>
+        <v>90649</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5720,21 +5690,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5964</v>
+        <v>4363</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5747,10 +5717,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>592469.8904488256</v>
+        <v>592453.2059521934</v>
       </c>
       <c r="R43" t="n">
-        <v>6548695.181917308</v>
+        <v>6548681.91950355</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -5777,7 +5747,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -5787,17 +5757,12 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>Närstående granar ej angripna av granbarkborrar. Däremot är angränsadegranar angripna och dödade.</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5825,7 +5790,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>95883659</v>
+        <v>80163307</v>
       </c>
       <c r="B44" t="n">
         <v>90674</v>
@@ -5868,10 +5833,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>592516.0412298843</v>
+        <v>591682.7761678249</v>
       </c>
       <c r="R44" t="n">
-        <v>6548704.526851534</v>
+        <v>6548856.794839797</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5898,7 +5863,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -5908,7 +5873,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-09-28</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -5934,14 +5899,14 @@
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Bo Törnquist, Bo Karlsson</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>95883336</v>
+        <v>80162570</v>
       </c>
       <c r="B45" t="n">
         <v>90674</v>
@@ -5984,10 +5949,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>592470.1635922646</v>
+        <v>592475.8971236403</v>
       </c>
       <c r="R45" t="n">
-        <v>6548683.872154091</v>
+        <v>6548659.834656947</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -6014,7 +5979,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -6024,7 +5989,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -6034,7 +5999,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Närstående granar ej angripna av granbarkborrar. Däremot är angränsade granar angripna och dödade.</t>
+          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6062,7 +6027,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>95883718</v>
+        <v>80162640</v>
       </c>
       <c r="B46" t="n">
         <v>90674</v>
@@ -6105,10 +6070,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>592501.6413129888</v>
+        <v>592496.0500183221</v>
       </c>
       <c r="R46" t="n">
-        <v>6548639.366720563</v>
+        <v>6548678.839233772</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -6135,7 +6100,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
@@ -6145,7 +6110,7 @@
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
@@ -6155,7 +6120,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>I anslutning till ännu ej barkborreangripna granar.</t>
+          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6183,7 +6148,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>95883124</v>
+        <v>80162738</v>
       </c>
       <c r="B47" t="n">
         <v>90674</v>
@@ -6226,10 +6191,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>592451.9461610671</v>
+        <v>592490.8817847576</v>
       </c>
       <c r="R47" t="n">
-        <v>6548712.751813049</v>
+        <v>6548658.139064921</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -6256,7 +6221,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -6266,7 +6231,7 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
@@ -6276,7 +6241,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Närstående granar ej angripna av granbarkborrar. Däremot är angränsade granar angripna och dödade.</t>
+          <t>Allmänt förekommande.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6304,10 +6269,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>95883169</v>
+        <v>82404837</v>
       </c>
       <c r="B48" t="n">
-        <v>90674</v>
+        <v>98520</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6320,37 +6285,38 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>592455.6564469512</v>
+        <v>592530.9342923289</v>
       </c>
       <c r="R48" t="n">
-        <v>6548729.815801632</v>
+        <v>6548408.078958036</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -6372,12 +6338,12 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -6387,12 +6353,17 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Enstaka blåsippor i blom.</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6420,10 +6391,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>95883709</v>
+        <v>82405163</v>
       </c>
       <c r="B49" t="n">
-        <v>90674</v>
+        <v>98520</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6436,26 +6407,27 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6463,10 +6435,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>592501.3308184006</v>
+        <v>592184.0283332916</v>
       </c>
       <c r="R49" t="n">
-        <v>6548652.21887141</v>
+        <v>6548647.138243447</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -6493,7 +6465,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -6503,7 +6475,7 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
@@ -6513,7 +6485,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>I anslutning till ännu ej barkborreangripna granar.</t>
+          <t>Enstak blåsippor i blom.</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6541,10 +6513,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>95883367</v>
+        <v>84112634</v>
       </c>
       <c r="B50" t="n">
-        <v>90661</v>
+        <v>81972</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6557,21 +6529,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2058</v>
+        <v>1445</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidel:Fr.) Rehm</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6588,14 +6560,14 @@
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Taljasjön, S om, Srm</t>
+          <t>Brogetorp, Ö om, Srm</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>592478.0251207016</v>
+        <v>592607.7488771563</v>
       </c>
       <c r="R50" t="n">
-        <v>6548678.403833939</v>
+        <v>6548406.849411691</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -6617,12 +6589,12 @@
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -6632,7 +6604,7 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
@@ -6642,7 +6614,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>Nära viltstig. Närstående granar ej angripna av granbarkborrar. Däremot är angränsade granar angripna och dödade.</t>
+          <t>Två bombmurklor i sämre skick i anslutning till mossmatta i övre delen av sydsluttning, ca 8m ö om granlåga. Gammal granskog. Längre öster om lokalen är de flesta granarna dödade av granbarkborren.</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6670,10 +6642,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>70655188</v>
+        <v>87297026</v>
       </c>
       <c r="B51" t="n">
-        <v>81972</v>
+        <v>89673</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6682,30 +6654,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1445</v>
+        <v>658</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -6714,19 +6686,20 @@
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Taljaskogen, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>592663.3053675652</v>
+        <v>592079.9567740129</v>
       </c>
       <c r="R51" t="n">
-        <v>6548389.674298235</v>
+        <v>6548667.781191001</v>
       </c>
       <c r="S51" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6745,12 +6718,12 @@
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2018-04-16</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -6760,7 +6733,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2018-04-16</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -6770,7 +6743,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>Spridda i större område i hela sydsluttningen.</t>
+          <t>Återfynd på granlåga. De flesta granarna i närområdet är dödade av granbarkborren. Både färska angrepp och angrepp från fjolåret..</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6786,22 +6759,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Ove Unander</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Ove Unander</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>79003637</v>
+        <v>87296723</v>
       </c>
       <c r="B52" t="n">
-        <v>93235</v>
+        <v>89392</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6810,50 +6783,41 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>210</v>
+        <v>1202</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>kapslar</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>592546.037382876</v>
+        <v>592498.8551706013</v>
       </c>
       <c r="R52" t="n">
-        <v>6548422.847629313</v>
+        <v>6548648.043979204</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -6875,12 +6839,12 @@
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2019-07-16</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -6890,7 +6854,7 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2019-07-16</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
@@ -6900,7 +6864,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>Vid basen av gammal rötskadad granlåga.Gammal grandominerad skog med delvis angrepp av 8-tandad barkborre.</t>
+          <t>Återfynd på granlåga.</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6921,17 +6885,17 @@
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Bo Karlsson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>79003677</v>
+        <v>87296761</v>
       </c>
       <c r="B53" t="n">
-        <v>89392</v>
+        <v>93235</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6940,41 +6904,50 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1202</v>
+        <v>210</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>592603.9751920738</v>
+        <v>592517.0168524627</v>
       </c>
       <c r="R53" t="n">
-        <v>6548285.867827895</v>
+        <v>6548642.82452909</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -6996,12 +6969,12 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2019-07-16</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
@@ -7011,7 +6984,7 @@
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2019-07-16</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
@@ -7021,7 +6994,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>På granlåga i anslutning till liten kulle. Gammal grandominerad skog med delvis angrepp av 8-tandad barkborre.</t>
+          <t>3 fräscha sporkapslar på kraftigt nedbruten rest av granlåga.</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -7042,17 +7015,17 @@
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Bo Karlsson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>79003640</v>
+        <v>87296694</v>
       </c>
       <c r="B54" t="n">
-        <v>93235</v>
+        <v>90665</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -7065,46 +7038,45 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>210</v>
+        <v>4366</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>kapslar</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>592652.0417776521</v>
+        <v>592487.9963351947</v>
       </c>
       <c r="R54" t="n">
-        <v>6548407.920876611</v>
+        <v>6548670.928951225</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -7126,12 +7098,12 @@
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2019-07-16</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
@@ -7141,17 +7113,12 @@
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2019-07-16</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>På gammal rötskadad granlåga. Gammal grandominerad skog med delvis angrepp av 8-tandad barkborre.</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -7172,17 +7139,17 @@
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Bo Karlsson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>79389596</v>
+        <v>87296628</v>
       </c>
       <c r="B55" t="n">
-        <v>8377</v>
+        <v>90674</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7195,44 +7162,48 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>106545</v>
+        <v>5964</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Taljaskogen, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>592459.325562061</v>
+        <v>592478.9930308497</v>
       </c>
       <c r="R55" t="n">
-        <v>6548471.165323671</v>
+        <v>6548680.999118994</v>
       </c>
       <c r="S55" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -7251,27 +7222,27 @@
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2019-08-13</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2019-08-13</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7280,28 +7251,29 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Fredrik Enoksson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Fredrik Enoksson, Peter Lantz</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>80163081</v>
+        <v>87296804</v>
       </c>
       <c r="B56" t="n">
-        <v>90674</v>
+        <v>4717</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7314,37 +7286,43 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5964</v>
+        <v>102306</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>592646.9734783082</v>
+        <v>592429.1934876081</v>
       </c>
       <c r="R56" t="n">
-        <v>6548383.106054715</v>
+        <v>6548652.019941922</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -7366,12 +7344,12 @@
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
@@ -7381,7 +7359,7 @@
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -7407,17 +7385,17 @@
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Bo Karlsson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>80163063</v>
+        <v>87296904</v>
       </c>
       <c r="B57" t="n">
-        <v>90674</v>
+        <v>43464</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7430,37 +7408,43 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5964</v>
+        <v>101735</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Scardia boletella</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fabricius, 1794)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>592598.220821107</v>
+        <v>592185.1105230334</v>
       </c>
       <c r="R57" t="n">
-        <v>6548332.02754331</v>
+        <v>6548687.800379345</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -7482,12 +7466,12 @@
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -7497,12 +7481,17 @@
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Gnag- och kläckhål i fnöskticka på gammal björklåga.</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7523,17 +7512,17 @@
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Bo Karlsson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>80162537</v>
+        <v>88206956</v>
       </c>
       <c r="B58" t="n">
-        <v>90008</v>
+        <v>90674</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7546,48 +7535,38 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6031</v>
+        <v>5964</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Flen, Srm</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>592494.2361768803</v>
+        <v>592549.9558076032</v>
       </c>
       <c r="R58" t="n">
-        <v>6548433.941977219</v>
+        <v>6548324.687578475</v>
       </c>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7611,27 +7590,22 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>Vid äldre tall.</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7640,29 +7614,28 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
-      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Andreas Grabs</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Andreas Grabs</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>80163121</v>
+        <v>88208442</v>
       </c>
       <c r="B59" t="n">
-        <v>90676</v>
+        <v>85253</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7671,52 +7644,42 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5966</v>
+        <v>1988</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Kryddspindling</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Cortinarius percomis</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Fr.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Flen, Srm</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>592751.9049274278</v>
+        <v>592590.3886370506</v>
       </c>
       <c r="R59" t="n">
-        <v>6548455.092725212</v>
+        <v>6548357.559507517</v>
       </c>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7735,27 +7698,27 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>Mellösa</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7764,29 +7727,28 @@
       <c r="AE59" t="b">
         <v>0</v>
       </c>
-      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Andreas Grabs</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Bo Karlsson</t>
+          <t>Andreas Grabs</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>80163016</v>
+        <v>95882961</v>
       </c>
       <c r="B60" t="n">
-        <v>90665</v>
+        <v>101246</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7795,30 +7757,39 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4366</v>
+        <v>706</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svedjenäva</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Geranium bohemicum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7826,10 +7797,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>592542.7676379033</v>
+        <v>592531.1387380073</v>
       </c>
       <c r="R60" t="n">
-        <v>6548408.879342608</v>
+        <v>6548420.944328959</v>
       </c>
       <c r="S60" t="n">
         <v>5</v>
@@ -7856,7 +7827,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
@@ -7866,12 +7837,17 @@
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>En kraftig planta som delvis fortfarande är i blom. Nyligen avverkat hygge efter kraftigt angrepp av granbarkborrar.</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7892,17 +7868,17 @@
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Bo Karlsson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>80163053</v>
+        <v>95883293</v>
       </c>
       <c r="B61" t="n">
-        <v>90674</v>
+        <v>90665</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7915,37 +7891,45 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5964</v>
+        <v>4366</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>592591.795261309</v>
+        <v>592488.3871526481</v>
       </c>
       <c r="R61" t="n">
-        <v>6548405.949193429</v>
+        <v>6548676.082214479</v>
       </c>
       <c r="S61" t="n">
         <v>5</v>
@@ -7967,12 +7951,12 @@
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
@@ -7982,12 +7966,17 @@
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>På gränsen mellan levande och barkborredödade granar.</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -8008,14 +7997,14 @@
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Bo Karlsson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>80163070</v>
+        <v>95883092</v>
       </c>
       <c r="B62" t="n">
         <v>90674</v>
@@ -8054,14 +8043,14 @@
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>592632.2458921084</v>
+        <v>592469.8904488256</v>
       </c>
       <c r="R62" t="n">
-        <v>6548310.21553408</v>
+        <v>6548695.181917308</v>
       </c>
       <c r="S62" t="n">
         <v>5</v>
@@ -8083,12 +8072,12 @@
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -8098,12 +8087,17 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Närstående granar ej angripna av granbarkborrar. Däremot är angränsadegranar angripna och dödade.</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -8124,17 +8118,17 @@
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Bo Karlsson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>80162978</v>
+        <v>95882421</v>
       </c>
       <c r="B63" t="n">
-        <v>90674</v>
+        <v>101246</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8143,30 +8137,39 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5964</v>
+        <v>706</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svedjenäva</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Geranium bohemicum</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
@@ -8174,10 +8177,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>592539.1195020226</v>
+        <v>592531.5487140946</v>
       </c>
       <c r="R63" t="n">
-        <v>6548389.243241783</v>
+        <v>6548403.978458477</v>
       </c>
       <c r="S63" t="n">
         <v>5</v>
@@ -8204,7 +8207,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
@@ -8214,12 +8217,17 @@
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>Två kraftiga plantor delvis fortfarande i blom. Nyligen avverkat hygge efter kraftigt angrepp av granbarkborrar.</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8247,7 +8255,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>80163046</v>
+        <v>95883659</v>
       </c>
       <c r="B64" t="n">
         <v>90674</v>
@@ -8286,14 +8294,14 @@
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>592548.1720637593</v>
+        <v>592516.0412298843</v>
       </c>
       <c r="R64" t="n">
-        <v>6548419.812723699</v>
+        <v>6548704.526851534</v>
       </c>
       <c r="S64" t="n">
         <v>5</v>
@@ -8315,12 +8323,12 @@
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -8330,7 +8338,7 @@
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2019-09-28</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
@@ -8356,17 +8364,17 @@
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Bo Karlsson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>82404837</v>
+        <v>95883336</v>
       </c>
       <c r="B65" t="n">
-        <v>98520</v>
+        <v>90674</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8379,38 +8387,37 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>592530.9342923289</v>
+        <v>592470.1635922646</v>
       </c>
       <c r="R65" t="n">
-        <v>6548408.078958036</v>
+        <v>6548683.872154091</v>
       </c>
       <c r="S65" t="n">
         <v>5</v>
@@ -8432,12 +8439,12 @@
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -8447,7 +8454,7 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
@@ -8457,7 +8464,7 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>Enstaka blåsippor i blom.</t>
+          <t>Närstående granar ej angripna av granbarkborrar. Däremot är angränsade granar angripna och dödade.</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8485,10 +8492,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>84112634</v>
+        <v>95883718</v>
       </c>
       <c r="B66" t="n">
-        <v>81972</v>
+        <v>90674</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8497,49 +8504,41 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1445</v>
+        <v>5964</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>592607.7488771563</v>
+        <v>592501.6413129888</v>
       </c>
       <c r="R66" t="n">
-        <v>6548406.849411691</v>
+        <v>6548639.366720563</v>
       </c>
       <c r="S66" t="n">
         <v>5</v>
@@ -8561,12 +8560,12 @@
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2020-04-02</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -8576,7 +8575,7 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2020-04-02</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
@@ -8586,7 +8585,7 @@
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>Två bombmurklor i sämre skick i anslutning till mossmatta i övre delen av sydsluttning, ca 8m ö om granlåga. Gammal granskog. Längre öster om lokalen är de flesta granarna dödade av granbarkborren.</t>
+          <t>I anslutning till ännu ej barkborreangripna granar.</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8614,7 +8613,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>88206956</v>
+        <v>95883124</v>
       </c>
       <c r="B67" t="n">
         <v>90674</v>
@@ -8648,20 +8647,22 @@
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Flen, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>592549.9558076032</v>
+        <v>592451.9461610671</v>
       </c>
       <c r="R67" t="n">
-        <v>6548324.687578475</v>
+        <v>6548712.751813049</v>
       </c>
       <c r="S67" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8680,27 +8681,32 @@
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>Närstående granar ej angripna av granbarkborrar. Däremot är angränsade granar angripna och dödade.</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8709,28 +8715,29 @@
       <c r="AE67" t="b">
         <v>0</v>
       </c>
+      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
       </c>
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Andreas Grabs</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Andreas Grabs</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>88208442</v>
+        <v>95883169</v>
       </c>
       <c r="B68" t="n">
-        <v>85253</v>
+        <v>90674</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8743,38 +8750,40 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1988</v>
+        <v>5964</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Kryddspindling</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Cortinarius percomis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Flen, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>592590.3886370506</v>
+        <v>592455.6564469512</v>
       </c>
       <c r="R68" t="n">
-        <v>6548357.559507517</v>
+        <v>6548729.815801632</v>
       </c>
       <c r="S68" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -8793,27 +8802,27 @@
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8822,28 +8831,29 @@
       <c r="AE68" t="b">
         <v>0</v>
       </c>
+      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
       </c>
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Andreas Grabs</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Andreas Grabs</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>95882961</v>
+        <v>95883709</v>
       </c>
       <c r="B69" t="n">
-        <v>101246</v>
+        <v>90674</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8852,50 +8862,41 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>706</v>
+        <v>5964</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Svedjenäva</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Geranium bohemicum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>592531.1387380073</v>
+        <v>592501.3308184006</v>
       </c>
       <c r="R69" t="n">
-        <v>6548420.944328959</v>
+        <v>6548652.21887141</v>
       </c>
       <c r="S69" t="n">
         <v>5</v>
@@ -8917,7 +8918,7 @@
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
@@ -8942,7 +8943,7 @@
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>En kraftig planta som delvis fortfarande är i blom. Nyligen avverkat hygge efter kraftigt angrepp av granbarkborrar.</t>
+          <t>I anslutning till ännu ej barkborreangripna granar.</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8970,10 +8971,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>95882421</v>
+        <v>95883367</v>
       </c>
       <c r="B70" t="n">
-        <v>101246</v>
+        <v>90661</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8982,25 +8983,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>706</v>
+        <v>2058</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Svedjenäva</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Geranium bohemicum</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -9010,22 +9011,21 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Brogetorp, Ö om, Srm</t>
+          <t>Taljasjön, S om, Srm</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>592531.5487140946</v>
+        <v>592478.0251207016</v>
       </c>
       <c r="R70" t="n">
-        <v>6548403.978458477</v>
+        <v>6548678.403833939</v>
       </c>
       <c r="S70" t="n">
         <v>5</v>
@@ -9047,7 +9047,7 @@
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>Flen</t>
+          <t>Mellösa</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
@@ -9072,7 +9072,7 @@
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>Två kraftiga plantor delvis fortfarande i blom. Nyligen avverkat hygge efter kraftigt angrepp av granbarkborrar.</t>
+          <t>Nära viltstig. Närstående granar ej angripna av granbarkborrar. Däremot är angränsade granar angripna och dödade.</t>
         </is>
       </c>
       <c r="AD70" t="b">
